--- a/TP3/Informe/dutycycle.xlsx
+++ b/TP3/Informe/dutycycle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OperaDownload\Laboratorio Electronica\lab-electronica\TP3\Informe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\lab-electronica\TP3\Informe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E4B20A-F7F5-4079-852B-B0926EBEBEAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73A0836-4885-4170-B492-2509DC1DEB31}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{36C561F6-FBB8-4DB0-84C5-779291EFDB57}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{36C561F6-FBB8-4DB0-84C5-779291EFDB57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,12 +390,12 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,60 +403,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6.3769999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>30</v>
       </c>
       <c r="B3">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="B4">
-        <v>9.0299999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
       <c r="B5">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>60</v>
       </c>
       <c r="B6">
-        <v>11.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>70</v>
       </c>
       <c r="B7">
-        <v>15.94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>80</v>
       </c>
       <c r="B8">
-        <v>23.35</v>
+        <v>28.37</v>
       </c>
     </row>
   </sheetData>
